--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Osm-Osmr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Osm-Osmr.xlsx
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Osmr</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -546,10 +546,10 @@
         <v>0.614215</v>
       </c>
       <c r="I2">
-        <v>0.003296321020982326</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="J2">
-        <v>0.003296321020982325</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.38001766666667</v>
+        <v>52.118632</v>
       </c>
       <c r="N2">
-        <v>145.140053</v>
+        <v>156.355896</v>
       </c>
       <c r="O2">
-        <v>0.4078615449886351</v>
+        <v>0.4211247107701463</v>
       </c>
       <c r="P2">
-        <v>0.4078615449886351</v>
+        <v>0.4211247107701464</v>
       </c>
       <c r="Q2">
-        <v>9.905244183710556</v>
+        <v>10.67068185129333</v>
       </c>
       <c r="R2">
-        <v>89.147197653395</v>
+        <v>96.03613666164</v>
       </c>
       <c r="S2">
-        <v>0.001344442584396366</v>
+        <v>0.001537173003082406</v>
       </c>
       <c r="T2">
-        <v>0.001344442584396366</v>
+        <v>0.001537173003082406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -608,10 +608,10 @@
         <v>0.614215</v>
       </c>
       <c r="I3">
-        <v>0.003296321020982326</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="J3">
-        <v>0.003296321020982325</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>182.614906</v>
       </c>
       <c r="O3">
-        <v>0.5131705284627005</v>
+        <v>0.4918500129446188</v>
       </c>
       <c r="P3">
-        <v>0.5131705284627006</v>
+        <v>0.4918500129446188</v>
       </c>
       <c r="Q3">
         <v>12.46275716542111</v>
@@ -638,10 +638,10 @@
         <v>112.16481448879</v>
       </c>
       <c r="S3">
-        <v>0.001691574800320208</v>
+        <v>0.001795331744084861</v>
       </c>
       <c r="T3">
-        <v>0.001691574800320209</v>
+        <v>0.001795331744084861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -670,40 +670,40 @@
         <v>0.614215</v>
       </c>
       <c r="I4">
-        <v>0.003296321020982326</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="J4">
-        <v>0.003296321020982325</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09713466666666666</v>
+        <v>0.041272</v>
       </c>
       <c r="N4">
-        <v>0.291404</v>
+        <v>0.123816</v>
       </c>
       <c r="O4">
-        <v>0.000818881371469998</v>
+        <v>0.0003334826413499395</v>
       </c>
       <c r="P4">
-        <v>0.0008188813714699981</v>
+        <v>0.0003334826413499395</v>
       </c>
       <c r="Q4">
-        <v>0.01988718976222222</v>
+        <v>0.008449960493333332</v>
       </c>
       <c r="R4">
-        <v>0.17898470786</v>
+        <v>0.07604964443999999</v>
       </c>
       <c r="S4">
-        <v>2.699295878467391E-06</v>
+        <v>1.217265337724464E-06</v>
       </c>
       <c r="T4">
-        <v>2.699295878467391E-06</v>
+        <v>1.217265337724464E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.614215</v>
       </c>
       <c r="I5">
-        <v>0.003296321020982326</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="J5">
-        <v>0.003296321020982325</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,90 +744,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.221835</v>
+        <v>10.72902533333333</v>
       </c>
       <c r="N5">
-        <v>27.665505</v>
+        <v>32.187076</v>
       </c>
       <c r="O5">
-        <v>0.0777434993233109</v>
+        <v>0.08669179364388484</v>
       </c>
       <c r="P5">
-        <v>0.07774349932331091</v>
+        <v>0.08669179364388484</v>
       </c>
       <c r="Q5">
-        <v>1.888063128175</v>
+        <v>2.196642765037777</v>
       </c>
       <c r="R5">
-        <v>16.992568153575</v>
+        <v>19.76978488534</v>
       </c>
       <c r="S5">
-        <v>0.0002562675310641549</v>
+        <v>0.0003164390057626073</v>
       </c>
       <c r="T5">
-        <v>0.000256267531064155</v>
+        <v>0.0003164390057626072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2047383333333333</v>
+        <v>0.8320383333333333</v>
       </c>
       <c r="H6">
-        <v>0.614215</v>
+        <v>2.496115</v>
       </c>
       <c r="I6">
-        <v>0.003296321020982326</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="J6">
-        <v>0.003296321020982325</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.04810533333333333</v>
+        <v>52.118632</v>
       </c>
       <c r="N6">
-        <v>0.144316</v>
+        <v>156.355896</v>
       </c>
       <c r="O6">
-        <v>0.000405545853883489</v>
+        <v>0.4211247107701463</v>
       </c>
       <c r="P6">
-        <v>0.0004055458538834891</v>
+        <v>0.4211247107701464</v>
       </c>
       <c r="Q6">
-        <v>0.009849005771111112</v>
+        <v>43.36469970489333</v>
       </c>
       <c r="R6">
-        <v>0.08864105193999999</v>
+        <v>390.28229734404</v>
       </c>
       <c r="S6">
-        <v>1.336809323128372E-06</v>
+        <v>0.006246934038714519</v>
       </c>
       <c r="T6">
-        <v>1.336809323128372E-06</v>
+        <v>0.00624693403871452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -856,10 +856,10 @@
         <v>2.496115</v>
       </c>
       <c r="I7">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="J7">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.38001766666667</v>
+        <v>60.87163533333334</v>
       </c>
       <c r="N7">
-        <v>145.140053</v>
+        <v>182.614906</v>
       </c>
       <c r="O7">
-        <v>0.4078615449886351</v>
+        <v>0.4918500129446188</v>
       </c>
       <c r="P7">
-        <v>0.4078615449886351</v>
+        <v>0.4918500129446188</v>
       </c>
       <c r="Q7">
-        <v>40.25402926601055</v>
+        <v>50.64753401002111</v>
       </c>
       <c r="R7">
-        <v>362.286263394095</v>
+        <v>455.8278060901901</v>
       </c>
       <c r="S7">
-        <v>0.005463694799948774</v>
+        <v>0.007296068146148147</v>
       </c>
       <c r="T7">
-        <v>0.005463694799948774</v>
+        <v>0.007296068146148148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -918,40 +918,40 @@
         <v>2.496115</v>
       </c>
       <c r="I8">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="J8">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>60.87163533333334</v>
+        <v>0.041272</v>
       </c>
       <c r="N8">
-        <v>182.614906</v>
+        <v>0.123816</v>
       </c>
       <c r="O8">
-        <v>0.5131705284627005</v>
+        <v>0.0003334826413499395</v>
       </c>
       <c r="P8">
-        <v>0.5131705284627006</v>
+        <v>0.0003334826413499395</v>
       </c>
       <c r="Q8">
-        <v>50.64753401002111</v>
+        <v>0.03433988609333333</v>
       </c>
       <c r="R8">
-        <v>455.8278060901901</v>
+        <v>0.30905897484</v>
       </c>
       <c r="S8">
-        <v>0.006874409177081767</v>
+        <v>4.946857807891536E-06</v>
       </c>
       <c r="T8">
-        <v>0.006874409177081768</v>
+        <v>4.946857807891537E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,72 +980,72 @@
         <v>2.496115</v>
       </c>
       <c r="I9">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="J9">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.09713466666666666</v>
+        <v>10.72902533333333</v>
       </c>
       <c r="N9">
-        <v>0.291404</v>
+        <v>32.187076</v>
       </c>
       <c r="O9">
-        <v>0.000818881371469998</v>
+        <v>0.08669179364388484</v>
       </c>
       <c r="P9">
-        <v>0.0008188813714699981</v>
+        <v>0.08669179364388484</v>
       </c>
       <c r="Q9">
-        <v>0.08081976616222222</v>
+        <v>8.926960356637776</v>
       </c>
       <c r="R9">
-        <v>0.72737789546</v>
+        <v>80.34264320973999</v>
       </c>
       <c r="S9">
-        <v>1.096969779585427E-05</v>
+        <v>0.00128597990747398</v>
       </c>
       <c r="T9">
-        <v>1.096969779585427E-05</v>
+        <v>0.00128597990747398</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8320383333333333</v>
+        <v>36.17530566666667</v>
       </c>
       <c r="H10">
-        <v>2.496115</v>
+        <v>108.525917</v>
       </c>
       <c r="I10">
-        <v>0.01339595474758724</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="J10">
-        <v>0.01339595474758724</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,90 +1054,90 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.221835</v>
+        <v>52.118632</v>
       </c>
       <c r="N10">
-        <v>27.665505</v>
+        <v>156.355896</v>
       </c>
       <c r="O10">
-        <v>0.0777434993233109</v>
+        <v>0.4211247107701463</v>
       </c>
       <c r="P10">
-        <v>0.07774349932331091</v>
+        <v>0.4211247107701464</v>
       </c>
       <c r="Q10">
-        <v>7.672920223675001</v>
+        <v>1885.407443528515</v>
       </c>
       <c r="R10">
-        <v>69.05628201307501</v>
+        <v>16968.66699175663</v>
       </c>
       <c r="S10">
-        <v>0.001041448398854152</v>
+        <v>0.2716037702549789</v>
       </c>
       <c r="T10">
-        <v>0.001041448398854152</v>
+        <v>0.271603770254979</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8320383333333333</v>
+        <v>36.17530566666667</v>
       </c>
       <c r="H11">
-        <v>2.496115</v>
+        <v>108.525917</v>
       </c>
       <c r="I11">
-        <v>0.01339595474758724</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="J11">
-        <v>0.01339595474758724</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.04810533333333333</v>
+        <v>60.87163533333334</v>
       </c>
       <c r="N11">
-        <v>0.144316</v>
+        <v>182.614906</v>
       </c>
       <c r="O11">
-        <v>0.000405545853883489</v>
+        <v>0.4918500129446188</v>
       </c>
       <c r="P11">
-        <v>0.0004055458538834891</v>
+        <v>0.4918500129446188</v>
       </c>
       <c r="Q11">
-        <v>0.04002548137111111</v>
+        <v>2202.0500146132</v>
       </c>
       <c r="R11">
-        <v>0.36022933234</v>
+        <v>19818.45013151881</v>
       </c>
       <c r="S11">
-        <v>5.432673906694847E-06</v>
+        <v>0.3172179511181246</v>
       </c>
       <c r="T11">
-        <v>5.432673906694848E-06</v>
+        <v>0.3172179511181247</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.65109566666667</v>
+        <v>36.17530566666667</v>
       </c>
       <c r="H12">
-        <v>67.953287</v>
+        <v>108.525917</v>
       </c>
       <c r="I12">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="J12">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>48.38001766666667</v>
+        <v>0.041272</v>
       </c>
       <c r="N12">
-        <v>145.140053</v>
+        <v>0.123816</v>
       </c>
       <c r="O12">
-        <v>0.4078615449886351</v>
+        <v>0.0003334826413499395</v>
       </c>
       <c r="P12">
-        <v>0.4078615449886351</v>
+        <v>0.0003334826413499395</v>
       </c>
       <c r="Q12">
-        <v>1095.86040852269</v>
+        <v>1.493027215474666</v>
       </c>
       <c r="R12">
-        <v>9862.743676704211</v>
+        <v>13.437244939272</v>
       </c>
       <c r="S12">
-        <v>0.1487415527014287</v>
+        <v>0.0002150791449392511</v>
       </c>
       <c r="T12">
-        <v>0.1487415527014287</v>
+        <v>0.0002150791449392511</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.65109566666667</v>
+        <v>36.17530566666667</v>
       </c>
       <c r="H13">
-        <v>67.953287</v>
+        <v>108.525917</v>
       </c>
       <c r="I13">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="J13">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,122 +1240,122 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.87163533333334</v>
+        <v>10.72902533333333</v>
       </c>
       <c r="N13">
-        <v>182.614906</v>
+        <v>32.187076</v>
       </c>
       <c r="O13">
-        <v>0.5131705284627005</v>
+        <v>0.08669179364388484</v>
       </c>
       <c r="P13">
-        <v>0.5131705284627006</v>
+        <v>0.08669179364388484</v>
       </c>
       <c r="Q13">
-        <v>1378.80923532178</v>
+        <v>388.1257709387435</v>
       </c>
       <c r="R13">
-        <v>12409.28311789602</v>
+        <v>3493.131938448692</v>
       </c>
       <c r="S13">
-        <v>0.1871463052646497</v>
+        <v>0.05591174633467961</v>
       </c>
       <c r="T13">
-        <v>0.1871463052646498</v>
+        <v>0.05591174633467961</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>22.65109566666667</v>
+        <v>0.01943233333333333</v>
       </c>
       <c r="H14">
-        <v>67.953287</v>
+        <v>0.058297</v>
       </c>
       <c r="I14">
-        <v>0.3646863856840764</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="J14">
-        <v>0.3646863856840764</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09713466666666666</v>
+        <v>52.118632</v>
       </c>
       <c r="N14">
-        <v>0.291404</v>
+        <v>156.355896</v>
       </c>
       <c r="O14">
-        <v>0.000818881371469998</v>
+        <v>0.4211247107701463</v>
       </c>
       <c r="P14">
-        <v>0.0008188813714699981</v>
+        <v>0.4211247107701464</v>
       </c>
       <c r="Q14">
-        <v>2.200206627216444</v>
+        <v>1.012786629901333</v>
       </c>
       <c r="R14">
-        <v>19.801859644948</v>
+        <v>9.115079669112001</v>
       </c>
       <c r="S14">
-        <v>0.0002986348876654132</v>
+        <v>0.0001458977305352279</v>
       </c>
       <c r="T14">
-        <v>0.0002986348876654132</v>
+        <v>0.0001458977305352279</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>22.65109566666667</v>
+        <v>0.01943233333333333</v>
       </c>
       <c r="H15">
-        <v>67.953287</v>
+        <v>0.058297</v>
       </c>
       <c r="I15">
-        <v>0.3646863856840764</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="J15">
-        <v>0.3646863856840764</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,60 +1364,60 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.221835</v>
+        <v>60.87163533333334</v>
       </c>
       <c r="N15">
-        <v>27.665505</v>
+        <v>182.614906</v>
       </c>
       <c r="O15">
-        <v>0.0777434993233109</v>
+        <v>0.4918500129446188</v>
       </c>
       <c r="P15">
-        <v>0.07774349932331091</v>
+        <v>0.4918500129446188</v>
       </c>
       <c r="Q15">
-        <v>208.884666807215</v>
+        <v>1.182877908342445</v>
       </c>
       <c r="R15">
-        <v>1879.962001264935</v>
+        <v>10.645901175082</v>
       </c>
       <c r="S15">
-        <v>0.02835199577865069</v>
+        <v>0.0001704003560396851</v>
       </c>
       <c r="T15">
-        <v>0.0283519957786507</v>
+        <v>0.0001704003560396851</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>22.65109566666667</v>
+        <v>0.01943233333333333</v>
       </c>
       <c r="H16">
-        <v>67.953287</v>
+        <v>0.058297</v>
       </c>
       <c r="I16">
-        <v>0.3646863856840764</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="J16">
-        <v>0.3646863856840764</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.04810533333333333</v>
+        <v>0.041272</v>
       </c>
       <c r="N16">
-        <v>0.144316</v>
+        <v>0.123816</v>
       </c>
       <c r="O16">
-        <v>0.000405545853883489</v>
+        <v>0.0003334826413499395</v>
       </c>
       <c r="P16">
-        <v>0.0004055458538834891</v>
+        <v>0.0003334826413499395</v>
       </c>
       <c r="Q16">
-        <v>1.089638507410222</v>
+        <v>0.0008020112613333333</v>
       </c>
       <c r="R16">
-        <v>9.806746566692</v>
+        <v>0.007218101352</v>
       </c>
       <c r="S16">
-        <v>0.0001478970516819322</v>
+        <v>1.155343281966788E-07</v>
       </c>
       <c r="T16">
-        <v>0.0001478970516819322</v>
+        <v>1.155343281966788E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>38.423291</v>
+        <v>0.01943233333333333</v>
       </c>
       <c r="H17">
-        <v>115.269873</v>
+        <v>0.058297</v>
       </c>
       <c r="I17">
-        <v>0.6186213385473539</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="J17">
-        <v>0.618621338547354</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,42 +1488,42 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>48.38001766666667</v>
+        <v>10.72902533333333</v>
       </c>
       <c r="N17">
-        <v>145.140053</v>
+        <v>32.187076</v>
       </c>
       <c r="O17">
-        <v>0.4078615449886351</v>
+        <v>0.08669179364388484</v>
       </c>
       <c r="P17">
-        <v>0.4078615449886351</v>
+        <v>0.08669179364388484</v>
       </c>
       <c r="Q17">
-        <v>1858.919497391474</v>
+        <v>0.2084899966191111</v>
       </c>
       <c r="R17">
-        <v>16730.27547652327</v>
+        <v>1.876409969572</v>
       </c>
       <c r="S17">
-        <v>0.2523118549028612</v>
+        <v>3.00341813842754E-05</v>
       </c>
       <c r="T17">
-        <v>0.2523118549028613</v>
+        <v>3.00341813842754E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.423291</v>
+        <v>18.858705</v>
       </c>
       <c r="H18">
-        <v>115.269873</v>
+        <v>56.576115</v>
       </c>
       <c r="I18">
-        <v>0.6186213385473539</v>
+        <v>0.3362209153765779</v>
       </c>
       <c r="J18">
-        <v>0.618621338547354</v>
+        <v>0.3362209153765779</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,42 +1550,42 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>60.87163533333334</v>
+        <v>52.118632</v>
       </c>
       <c r="N18">
-        <v>182.614906</v>
+        <v>156.355896</v>
       </c>
       <c r="O18">
-        <v>0.5131705284627005</v>
+        <v>0.4211247107701463</v>
       </c>
       <c r="P18">
-        <v>0.5131705284627006</v>
+        <v>0.4211247107701464</v>
       </c>
       <c r="Q18">
-        <v>2338.888558058549</v>
+        <v>982.88990589156</v>
       </c>
       <c r="R18">
-        <v>21049.99702252694</v>
+        <v>8846.009153024041</v>
       </c>
       <c r="S18">
-        <v>0.3174582392206488</v>
+        <v>0.1415909357428352</v>
       </c>
       <c r="T18">
-        <v>0.3174582392206489</v>
+        <v>0.1415909357428352</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,60 +1594,60 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.423291</v>
+        <v>18.858705</v>
       </c>
       <c r="H19">
-        <v>115.269873</v>
+        <v>56.576115</v>
       </c>
       <c r="I19">
-        <v>0.6186213385473539</v>
+        <v>0.3362209153765779</v>
       </c>
       <c r="J19">
-        <v>0.618621338547354</v>
+        <v>0.3362209153765779</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.09713466666666666</v>
+        <v>60.87163533333334</v>
       </c>
       <c r="N19">
-        <v>0.291404</v>
+        <v>182.614906</v>
       </c>
       <c r="O19">
-        <v>0.000818881371469998</v>
+        <v>0.4918500129446188</v>
       </c>
       <c r="P19">
-        <v>0.0008188813714699981</v>
+        <v>0.4918500129446188</v>
       </c>
       <c r="Q19">
-        <v>3.732233563521333</v>
+        <v>1147.96021361891</v>
       </c>
       <c r="R19">
-        <v>33.590102071692</v>
+        <v>10331.64192257019</v>
       </c>
       <c r="S19">
-        <v>0.0005065774901302631</v>
+        <v>0.1653702615802214</v>
       </c>
       <c r="T19">
-        <v>0.0005065774901302633</v>
+        <v>0.1653702615802214</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,57 +1656,57 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.423291</v>
+        <v>18.858705</v>
       </c>
       <c r="H20">
-        <v>115.269873</v>
+        <v>56.576115</v>
       </c>
       <c r="I20">
-        <v>0.6186213385473539</v>
+        <v>0.3362209153765779</v>
       </c>
       <c r="J20">
-        <v>0.618621338547354</v>
+        <v>0.3362209153765779</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>9.221835</v>
+        <v>0.041272</v>
       </c>
       <c r="N20">
-        <v>27.665505</v>
+        <v>0.123816</v>
       </c>
       <c r="O20">
-        <v>0.0777434993233109</v>
+        <v>0.0003334826413499395</v>
       </c>
       <c r="P20">
-        <v>0.07774349932331091</v>
+        <v>0.0003334826413499395</v>
       </c>
       <c r="Q20">
-        <v>354.333249758985</v>
+        <v>0.77833647276</v>
       </c>
       <c r="R20">
-        <v>3188.999247830865</v>
+        <v>7.00502825484</v>
       </c>
       <c r="S20">
-        <v>0.04809378761474189</v>
+        <v>0.0001121238389368757</v>
       </c>
       <c r="T20">
-        <v>0.04809378761474191</v>
+        <v>0.0001121238389368757</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.423291</v>
+        <v>18.858705</v>
       </c>
       <c r="H21">
-        <v>115.269873</v>
+        <v>56.576115</v>
       </c>
       <c r="I21">
-        <v>0.6186213385473539</v>
+        <v>0.3362209153765779</v>
       </c>
       <c r="J21">
-        <v>0.618621338547354</v>
+        <v>0.3362209153765779</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.04810533333333333</v>
+        <v>10.72902533333333</v>
       </c>
       <c r="N21">
-        <v>0.144316</v>
+        <v>32.187076</v>
       </c>
       <c r="O21">
-        <v>0.000405545853883489</v>
+        <v>0.08669179364388484</v>
       </c>
       <c r="P21">
-        <v>0.0004055458538834891</v>
+        <v>0.08669179364388484</v>
       </c>
       <c r="Q21">
-        <v>1.848365221318667</v>
+        <v>202.33552369886</v>
       </c>
       <c r="R21">
-        <v>16.635286991868</v>
+        <v>1821.01971328974</v>
       </c>
       <c r="S21">
-        <v>0.0002508793189717336</v>
+        <v>0.02914759421458436</v>
       </c>
       <c r="T21">
-        <v>0.0002508793189717337</v>
+        <v>0.02914759421458436</v>
       </c>
     </row>
   </sheetData>
